--- a/biology/Zoologie/Buphagus/Buphagus.xlsx
+++ b/biology/Zoologie/Buphagus/Buphagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buphagus est un genre de passereaux constitué de deux espèces de piquebœufs, oiseaux se nourrissant des parasites d'autres animaux. Ce genre est le seul de la famille des Buphagidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux espèces habitent la savane. L'habitat qu'elles fréquentent est aussi dépendant des mammifères qu'elles suivent et des parasites dont ces derniers sont porteurs.
 </t>
@@ -542,7 +556,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les piquebœufs cherchent leur nourriture autant sur les mammifères domestiques (bétail, âne) que sur les mammifères sauvages.  Les espèces  sauvages les plus convoitées sont le Buffle d'Afrique, le Rhinocéros blanc, le Rhinocéros noir, la Girafe, l'Hippopotame amphibie, le Grand koudou, l'Éland, l'Antilope rouanne, l'Hippotrague noir, le Gnou bleu, le Zèbre des plaines et le Phacochère de Somalie.  Les éléphants ne tolèrent pas la présence des piquebœufs sur leur dos.
 Les tiques les plus communément consommées sont Boophilus decoloratus et Rhipicephalus appendiculatus.  Dans une moindre mesure, les espèces du genre Amblyomma font aussi partie de la diète des piquebœufs ainsi que plusieurs autres espèces d'invertébrés occasionnellement rencontrés sur le dos des mammifères.
@@ -575,7 +591,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison de nidification est étroitement liée à la saison des pluies.  Les deux espèces de piquebœufs nichent dans les cavités des arbres.  Comme ils ne s'associent pas avec des animaux migrateurs, ils peuvent veiller à l'incubation et l'élevage des oisillons tout en ayant accès à une source de nourriture à proximité. Les piquebœufs pratiquent la reproduction communautaire.
 </t>
@@ -606,7 +624,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international :
 </t>
